--- a/src/test/resources/import.xlsx
+++ b/src/test/resources/import.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>a</t>
   </si>
@@ -33,6 +33,33 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>Integer number</t>
+  </si>
+  <si>
+    <t>Double number</t>
+  </si>
+  <si>
+    <t>String value 1</t>
+  </si>
+  <si>
+    <t>String 3</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>String val</t>
+  </si>
+  <si>
+    <t>2bis</t>
+  </si>
+  <si>
+    <t>3 String</t>
+  </si>
+  <si>
+    <t>0.25</t>
   </si>
 </sst>
 </file>
@@ -350,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E3" sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,27 +395,45 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>3</v>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>6</v>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>54564</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/import.xlsx
+++ b/src/test/resources/import.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">String val</t>
   </si>
   <si>
-    <t xml:space="preserve">3 String</t>
+    <t xml:space="preserve">3 String </t>
   </si>
   <si>
     <t xml:space="preserve">0.25</t>
@@ -415,12 +415,12 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
